--- a/AnandERP/AERP.Web.UI/Content/DownloadFiles/SaleContractEmployeeExcel.xlsx
+++ b/AnandERP/AERP.Web.UI/Content/DownloadFiles/SaleContractEmployeeExcel.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sale Contract Employee Excel" sheetId="1" r:id="Rb103899aaaec4b73"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sale Contract Employee Excel" sheetId="1" r:id="Rdd6496ccfc6140ac"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -211,10 +211,10 @@
       <x:formula1>"Dr, Mr, Mrs, Ms"</x:formula1>
     </x:dataValidation>
     <x:dataValidation type="list" errorStyle="stop" allowBlank="1" showErrorMessage="1" errorTitle="Incorrect Value" error="Please select value from list." sqref="L3:L100">
-      <x:formula1>"MUMBAI, NAGPUR, RAIPUR, WARDHA"</x:formula1>
+      <x:formula1>"BESA, MUMBAI, NAGPUR, RAIPUR, WARDHA"</x:formula1>
     </x:dataValidation>
     <x:dataValidation type="list" errorStyle="stop" allowBlank="1" showErrorMessage="1" errorTitle="Incorrect Value" error="Please select value from list." sqref="P3:P500">
-      <x:formula1>"DBCG, HO, MPHO"</x:formula1>
+      <x:formula1>"DBCG, HO, HTHO, IINNOV, MPHO, STHO"</x:formula1>
     </x:dataValidation>
     <x:dataValidation type="list" errorStyle="stop" allowBlank="1" showErrorMessage="1" errorTitle="Incorrect Value" error="Please select value from list." sqref="Q3:Q500">
       <x:formula1>"M,F"</x:formula1>
